--- a/2021项目对接/2021项目需求进度表.xlsx
+++ b/2021项目对接/2021项目需求进度表.xlsx
@@ -13,13 +13,14 @@
     <sheet name="4月" sheetId="4" r:id="rId4"/>
     <sheet name="5月" sheetId="5" r:id="rId5"/>
     <sheet name="6月" sheetId="7" r:id="rId6"/>
+    <sheet name="7月" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="409">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1353,15 +1354,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>垫付接口对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件重命名规则调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时邮件格式调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取全量服务记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改单服务接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘博阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊瑚公众号删除注册协议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>开发中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>垫付接口对接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传文件重命名规则调整</t>
+    <t>工单流程优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2071002H016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海星益健康管理有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星益健康医疗咨询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李小慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务记录接口开发</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1369,7 +1434,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>定时邮件格式调整</t>
+    <t>朱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩硕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准健康API服务流程改造开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡产品对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1377,7 +1466,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>提取全量服务记录</t>
+    <t>S16208BX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰康健康管理（北京）有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰康健康管理公司合作项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李冉冉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务记录回传字段调整</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1385,7 +1498,75 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>修改单服务接口</t>
+    <t>HLS2161001Q082</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱众健康无创微磁项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁爱众健康科技有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍鑫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微磁检测接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安享垫付回传信息更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照护流程更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结案信息交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS20C1003B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人民财产保险股份有限公司北京市分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人保财北分高端医疗救援项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周伟峰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务记录邮件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊瑚注册弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健保注册弹窗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1393,11 +1574,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>标准化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊瑚API合规调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM18C05B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水滴保险经纪有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水滴保健康咨询增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>定制化</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>珊瑚公众号删除注册协议</t>
+    <t>电话医生对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>——</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1405,99 +1614,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工单流程优化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS2071002H016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海星益健康管理有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>星益健康医疗咨询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李小慧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务记录接口开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩硕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精准健康API服务流程改造开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡产品对接</t>
+    <t>整理中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准健康备案开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2081001B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人寿保险股份有限公司重庆市分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆税优项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申婷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成页开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>——</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>开发中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S16208BX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰康健康管理（北京）有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰康健康管理公司合作项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李冉冉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定制化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务记录回传字段调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3922,7 +4079,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4710,7 +4867,7 @@
         <v>44354</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
@@ -4754,10 +4911,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5074,7 +5231,7 @@
         <v>306</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>307</v>
@@ -5144,7 +5301,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H11" s="9">
         <v>44362</v>
@@ -5156,7 +5313,7 @@
         <v>44363</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -5214,7 +5371,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H13" s="9">
         <v>44363</v>
@@ -5226,7 +5383,7 @@
         <v>44372</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -5249,7 +5406,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H14" s="9">
         <v>44365</v>
@@ -5261,7 +5418,7 @@
         <v>44369</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -5284,7 +5441,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H15" s="9">
         <v>44369</v>
@@ -5296,7 +5453,7 @@
         <v>44369</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -5319,7 +5476,7 @@
         <v>329</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H16" s="9">
         <v>44369</v>
@@ -5327,8 +5484,11 @@
       <c r="I16" s="9">
         <v>44369</v>
       </c>
+      <c r="J16" s="9">
+        <v>44376</v>
+      </c>
       <c r="L16" s="8" t="s">
-        <v>333</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
@@ -5336,13 +5496,13 @@
         <v>299</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>344</v>
       </c>
       <c r="H17" s="9">
         <v>44369</v>
@@ -5354,7 +5514,7 @@
         <v>44375</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -5377,7 +5537,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H18" s="9">
         <v>44370</v>
@@ -5386,10 +5546,10 @@
         <v>44370</v>
       </c>
       <c r="J18" s="9">
-        <v>44372</v>
+        <v>44379</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -5397,22 +5557,22 @@
         <v>301</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>352</v>
       </c>
       <c r="H19" s="9">
         <v>44370</v>
@@ -5424,7 +5584,7 @@
         <v>44372</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -5432,13 +5592,13 @@
         <v>304</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>356</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>357</v>
       </c>
       <c r="H20" s="9">
         <v>44372</v>
@@ -5447,7 +5607,7 @@
         <v>44372</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
@@ -5470,7 +5630,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H21" s="9">
         <v>44372</v>
@@ -5479,7 +5639,7 @@
         <v>44372</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
@@ -5487,22 +5647,22 @@
         <v>306</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>366</v>
-      </c>
       <c r="G22" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H22" s="9">
         <v>44372</v>
@@ -5511,7 +5671,394 @@
         <v>44372</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
+        <v>309</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="H23" s="9">
+        <v>44375</v>
+      </c>
+      <c r="I23" s="9">
+        <v>44375</v>
+      </c>
+      <c r="J23" s="9">
+        <v>44386</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <v>314</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="H24" s="9">
+        <v>44377</v>
+      </c>
+      <c r="I24" s="9">
+        <v>44377</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="17.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="8"/>
+    <col min="10" max="10" width="23" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
+        <v>317</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="H2" s="9">
+        <v>44377</v>
+      </c>
+      <c r="I2" s="9">
+        <v>44378</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>318</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="H3" s="9">
+        <v>44378</v>
+      </c>
+      <c r="I3" s="9">
+        <v>44378</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>319</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="H4" s="9">
+        <v>44378</v>
+      </c>
+      <c r="I4" s="9">
+        <v>44378</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>316</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="H5" s="9">
+        <v>44377</v>
+      </c>
+      <c r="I5" s="9">
+        <v>44377</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>315</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="H6" s="9">
+        <v>44377</v>
+      </c>
+      <c r="I6" s="9">
+        <v>44377</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E7" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="H7" s="9">
+        <v>44379</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="H8" s="9">
+        <v>44376</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>327</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="H9" s="9">
+        <v>44382</v>
+      </c>
+      <c r="I9" s="9">
+        <v>44382</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>328</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H10" s="9">
+        <v>44379</v>
+      </c>
+      <c r="I10" s="9">
+        <v>44382</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/2021项目对接/2021项目需求进度表.xlsx
+++ b/2021项目对接/2021项目需求进度表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B524A3BB-FFB7-48BE-BED0-A10B4A4C0261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="1" r:id="rId1"/>
@@ -15,12 +16,23 @@
     <sheet name="6月" sheetId="7" r:id="rId6"/>
     <sheet name="7月" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="436">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1398,27 +1410,271 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>工单流程优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2071002H016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海星益健康管理有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星益健康医疗咨询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李小慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务记录接口开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩硕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准健康API服务流程改造开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡产品对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S16208BX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰康健康管理（北京）有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰康健康管理公司合作项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李冉冉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务记录回传字段调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2161001Q082</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱众健康无创微磁项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁爱众健康科技有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍鑫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微磁检测接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安享垫付回传信息更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照护流程更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结案信息交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS20C1003B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人民财产保险股份有限公司北京市分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人保财北分高端医疗救援项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周伟峰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务记录邮件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊瑚注册弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健保注册弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM18C05B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水滴保险经纪有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水滴保健康咨询增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪希慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话医生对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>——</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>开发中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工单流程优化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS2071002H016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海星益健康管理有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>星益健康医疗咨询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李小慧</t>
+    <t>整理中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准健康备案开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2081001B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人寿保险股份有限公司重庆市分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆税优项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申婷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成页开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>照护记录页面功能调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS20C1003B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人民财产保险股份有限公司北京市分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人保财北分高端医疗救援项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务记录定时邮件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结案信息对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘博阳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1426,7 +1682,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>服务记录接口开发</t>
+    <t>精准健康API备案流程</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1434,11 +1690,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>朱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩硕</t>
+    <t>HLS2081001B031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人寿保险股份有限公司重庆市分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆税优项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申婷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成页接口开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1446,19 +1726,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>精准健康API服务流程改造开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡产品对接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
+    <t>珊瑚API增加隐私政策</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1466,202 +1738,50 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>S16208BX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰康健康管理（北京）有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰康健康管理公司合作项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李冉冉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定制化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务记录回传字段调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HLS2161001Q082</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱众健康无创微磁项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>辽宁爱众健康科技有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>霍鑫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定制化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微磁检测接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安享垫付回传信息更新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>照护流程更新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结案信息交互</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS20C1003B031</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国人民财产保险股份有限公司北京市分公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人保财北分高端医疗救援项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>周伟峰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务记录邮件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>珊瑚注册弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健保注册弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘博阳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>珊瑚API合规调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COM18C05B031</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水滴保险经纪有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水滴保健康咨询增值服务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪希慧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定制化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话医生对接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>——</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精准健康备案开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLS2081001B031</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国人寿保险股份有限公司重庆市分公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆税优项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申婷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定制化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成页开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>——</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
+    <t>HLS2131011B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西人保寿省公司重疾绿通卡项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中国人民人寿保险股份有限公司山西省分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金煜阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊瑚医疗助手排版+新增服务入口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口字段调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵雨婷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBS医生端优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加HBS鉴权模糊查询规则</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
@@ -1782,7 +1902,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1857,6 +1977,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1892,6 +2029,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2067,7 +2221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3010,7 +3164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3304,7 +3458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -3655,7 +3809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4075,7 +4229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4867,7 +5021,7 @@
         <v>44354</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
@@ -4910,11 +5064,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5231,7 +5385,7 @@
         <v>306</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>307</v>
@@ -5383,7 +5537,7 @@
         <v>44372</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -5514,7 +5668,7 @@
         <v>44375</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>344</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -5537,7 +5691,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H18" s="9">
         <v>44370</v>
@@ -5549,7 +5703,7 @@
         <v>44379</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -5557,22 +5711,22 @@
         <v>301</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>350</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>351</v>
       </c>
       <c r="H19" s="9">
         <v>44370</v>
@@ -5584,7 +5738,7 @@
         <v>44372</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -5592,13 +5746,13 @@
         <v>304</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>356</v>
       </c>
       <c r="H20" s="9">
         <v>44372</v>
@@ -5606,8 +5760,11 @@
       <c r="I20" s="9">
         <v>44372</v>
       </c>
+      <c r="J20" s="9">
+        <v>44383</v>
+      </c>
       <c r="L20" s="8" t="s">
-        <v>359</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
@@ -5630,7 +5787,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H21" s="9">
         <v>44372</v>
@@ -5638,8 +5795,11 @@
       <c r="I21" s="9">
         <v>44372</v>
       </c>
+      <c r="J21" s="9">
+        <v>44383</v>
+      </c>
       <c r="L21" s="8" t="s">
-        <v>358</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
@@ -5647,22 +5807,22 @@
         <v>306</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>363</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>367</v>
       </c>
       <c r="H22" s="9">
         <v>44372</v>
@@ -5670,8 +5830,11 @@
       <c r="I22" s="9">
         <v>44372</v>
       </c>
+      <c r="J22" s="9">
+        <v>44390</v>
+      </c>
       <c r="L22" s="8" t="s">
-        <v>366</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
@@ -5679,22 +5842,22 @@
         <v>309</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>370</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>374</v>
       </c>
       <c r="H23" s="9">
         <v>44375</v>
@@ -5706,7 +5869,7 @@
         <v>44386</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
@@ -5729,13 +5892,179 @@
         <v>14</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H24" s="9">
         <v>44377</v>
       </c>
       <c r="I24" s="9">
         <v>44377</v>
+      </c>
+      <c r="J24" s="9">
+        <v>44383</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
+        <v>317</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="H25" s="9">
+        <v>44378</v>
+      </c>
+      <c r="I25" s="9">
+        <v>44378</v>
+      </c>
+      <c r="J25" s="9">
+        <v>44386</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
+        <v>318</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="H26" s="9">
+        <v>44378</v>
+      </c>
+      <c r="I26" s="9">
+        <v>44378</v>
+      </c>
+      <c r="J26" s="9">
+        <v>44386</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
+        <v>319</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="H27" s="9">
+        <v>44378</v>
+      </c>
+      <c r="I27" s="9">
+        <v>44378</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
+        <v>327</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H28" s="9">
+        <v>44382</v>
+      </c>
+      <c r="I28" s="9">
+        <v>44382</v>
+      </c>
+      <c r="J28" s="9">
+        <v>44390</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="8">
+        <v>328</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="H29" s="9">
+        <v>44382</v>
+      </c>
+      <c r="I29" s="9">
+        <v>44382</v>
+      </c>
+      <c r="J29" s="9">
+        <v>44390</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -5746,11 +6075,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5826,7 +6155,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H2" s="9">
         <v>44377</v>
@@ -5834,8 +6163,11 @@
       <c r="I2" s="9">
         <v>44378</v>
       </c>
+      <c r="J2" s="9">
+        <v>44386</v>
+      </c>
       <c r="L2" s="8" t="s">
-        <v>397</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -5843,22 +6175,22 @@
         <v>318</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H3" s="9">
         <v>44378</v>
@@ -5866,8 +6198,11 @@
       <c r="I3" s="9">
         <v>44378</v>
       </c>
+      <c r="J3" s="9">
+        <v>44386</v>
+      </c>
       <c r="L3" s="8" t="s">
-        <v>397</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -5890,7 +6225,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H4" s="9">
         <v>44378</v>
@@ -5898,8 +6233,11 @@
       <c r="I4" s="9">
         <v>44378</v>
       </c>
+      <c r="J4" s="9">
+        <v>44393</v>
+      </c>
       <c r="L4" s="8" t="s">
-        <v>397</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -5910,10 +6248,10 @@
         <v>282</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H5" s="9">
         <v>44377</v>
@@ -5921,8 +6259,11 @@
       <c r="I5" s="9">
         <v>44377</v>
       </c>
+      <c r="J5" s="9">
+        <v>44377</v>
+      </c>
       <c r="L5" s="8" t="s">
-        <v>397</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -5936,7 +6277,7 @@
         <v>302</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H6" s="9">
         <v>44377</v>
@@ -5944,121 +6285,317 @@
       <c r="I6" s="9">
         <v>44377</v>
       </c>
+      <c r="J6" s="9">
+        <v>44377</v>
+      </c>
       <c r="L6" s="8" t="s">
-        <v>397</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>383</v>
+      </c>
       <c r="E7" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="H7" s="9">
+        <v>44376</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="H7" s="9">
-        <v>44379</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>407</v>
-      </c>
       <c r="L7" s="8" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>327</v>
+      </c>
       <c r="B8" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>395</v>
-      </c>
       <c r="H8" s="9">
-        <v>44376</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>396</v>
+        <v>44382</v>
+      </c>
+      <c r="I8" s="9">
+        <v>44382</v>
+      </c>
+      <c r="J8" s="9">
+        <v>44390</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>399</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>326</v>
+        <v>394</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>14</v>
+        <v>397</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H9" s="9">
-        <v>44382</v>
+        <v>44379</v>
       </c>
       <c r="I9" s="9">
         <v>44382</v>
       </c>
+      <c r="J9" s="9">
+        <v>44390</v>
+      </c>
       <c r="L9" s="8" t="s">
-        <v>408</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
-        <v>328</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>405</v>
+        <v>330</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="H10" s="9">
-        <v>44379</v>
+        <v>44383</v>
       </c>
       <c r="I10" s="9">
-        <v>44382</v>
+        <v>44383</v>
+      </c>
+      <c r="J10" s="9">
+        <v>44390</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>408</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>344</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="H11" s="9">
+        <v>44386</v>
+      </c>
+      <c r="I11" s="9">
+        <v>44390</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <v>349</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" s="9">
+        <v>44390</v>
+      </c>
+      <c r="I12" s="9">
+        <v>44391</v>
+      </c>
+      <c r="J12" s="9">
+        <v>44396</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>350</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H13" s="9">
+        <v>44390</v>
+      </c>
+      <c r="I13" s="9">
+        <v>44390</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>352</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="H14" s="9">
+        <v>44391</v>
+      </c>
+      <c r="I14" s="9">
+        <v>44391</v>
+      </c>
+      <c r="J14" s="9">
+        <v>44393</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
+        <v>354</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="H15" s="9">
+        <v>44392</v>
+      </c>
+      <c r="I15" s="9">
+        <v>44392</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="L15" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
+        <v>367</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="H16" s="9">
+        <v>44396</v>
+      </c>
+      <c r="I16" s="9">
+        <v>44396</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/2021项目对接/2021项目需求进度表.xlsx
+++ b/2021项目对接/2021项目需求进度表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B524A3BB-FFB7-48BE-BED0-A10B4A4C0261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E995E2-E05A-4397-A6B8-866D970B5056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="442">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1775,6 +1775,30 @@
   </si>
   <si>
     <t>增加HBS鉴权模糊查询规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBS资源协调员端优化需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊瑚卡产品名称修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄晓莉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS18B11B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人寿保险股份有限公司成都市郫都区支公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都郫县国寿传统服务重疾增订项目</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1817,12 +1841,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1852,7 +1882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1882,6 +1912,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6076,10 +6112,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6426,26 +6462,29 @@
         <v>421</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+    <row r="11" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11">
         <v>344</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="12">
         <v>44386</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="12">
         <v>44390</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="J11" s="12">
+        <v>44410</v>
+      </c>
+      <c r="L11" s="11" t="s">
         <v>390</v>
       </c>
     </row>
@@ -6484,26 +6523,29 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
+    <row r="13" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11">
         <v>350</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="12">
         <v>44390</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="12">
         <v>44390</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="J13" s="12">
+        <v>44410</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6542,59 +6584,122 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="8">
+    <row r="15" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11">
         <v>354</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="12">
         <v>44392</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="12">
         <v>44392</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="L15" s="8" t="s">
+      <c r="J15" s="12">
+        <v>44400</v>
+      </c>
+      <c r="L15" s="11" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="8">
+    <row r="16" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11">
         <v>367</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="12">
         <v>44396</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="12">
         <v>44396</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="J16" s="12">
+        <v>44400</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11">
+        <v>375</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="H17" s="12">
+        <v>44397</v>
+      </c>
+      <c r="I17" s="12">
+        <v>44399</v>
+      </c>
+      <c r="J17" s="12">
+        <v>44404</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <v>378</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="H18" s="9">
+        <v>44398</v>
+      </c>
+      <c r="I18" s="9">
+        <v>44398</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>389</v>
       </c>
     </row>

--- a/2021项目对接/2021项目需求进度表.xlsx
+++ b/2021项目对接/2021项目需求进度表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E995E2-E05A-4397-A6B8-866D970B5056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929783F6-6EDB-45F6-822D-B88F3BA1169D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23385" yWindow="3600" windowWidth="17985" windowHeight="10290" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="445">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1586,22 +1586,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>——</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>开发中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>整理中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>精准健康备案开发</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1799,6 +1787,30 @@
   </si>
   <si>
     <t>成都郫县国寿传统服务重疾增订项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2171003Q017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心麦（江苏）大数据科技有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心麦江苏大数据健康项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩磊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务+备案接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品上线中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5835,7 +5847,7 @@
         <v>44383</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
@@ -5870,7 +5882,7 @@
         <v>44390</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
@@ -5905,7 +5917,7 @@
         <v>44386</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
@@ -5940,7 +5952,7 @@
         <v>44383</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
@@ -5963,7 +5975,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H25" s="9">
         <v>44378</v>
@@ -5975,7 +5987,7 @@
         <v>44386</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
@@ -5983,19 +5995,19 @@
         <v>318</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="G26" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>404</v>
       </c>
       <c r="H26" s="9">
         <v>44378</v>
@@ -6007,7 +6019,7 @@
         <v>44386</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
@@ -6030,7 +6042,7 @@
         <v>14</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H27" s="9">
         <v>44378</v>
@@ -6039,7 +6051,7 @@
         <v>44378</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
@@ -6047,13 +6059,13 @@
         <v>327</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H28" s="9">
         <v>44382</v>
@@ -6065,7 +6077,7 @@
         <v>44390</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
@@ -6073,22 +6085,22 @@
         <v>328</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>416</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>419</v>
       </c>
       <c r="H29" s="9">
         <v>44382</v>
@@ -6100,7 +6112,7 @@
         <v>44390</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -6112,10 +6124,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6126,7 +6138,7 @@
     <col min="4" max="4" width="31.75" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.875" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.75" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="8"/>
     <col min="10" max="10" width="23" style="8" bestFit="1" customWidth="1"/>
@@ -6328,33 +6340,36 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
+        <v>386</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="12">
         <v>44376</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="12">
+        <v>44399</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>388</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
@@ -6377,7 +6392,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H8" s="9">
         <v>44382</v>
@@ -6397,22 +6412,22 @@
         <v>328</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>398</v>
       </c>
       <c r="H9" s="9">
         <v>44379</v>
@@ -6459,7 +6474,7 @@
         <v>44390</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -6467,13 +6482,13 @@
         <v>344</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H11" s="12">
         <v>44386</v>
@@ -6485,7 +6500,7 @@
         <v>44410</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -6493,16 +6508,16 @@
         <v>349</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>427</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>430</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>30</v>
@@ -6520,7 +6535,7 @@
         <v>44396</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>389</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -6534,7 +6549,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H13" s="12">
         <v>44390</v>
@@ -6546,7 +6561,7 @@
         <v>44410</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -6569,7 +6584,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H14" s="9">
         <v>44391</v>
@@ -6589,13 +6604,13 @@
         <v>354</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>30</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H15" s="12">
         <v>44392</v>
@@ -6607,7 +6622,7 @@
         <v>44400</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -6630,7 +6645,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H16" s="12">
         <v>44396</v>
@@ -6642,7 +6657,7 @@
         <v>44400</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -6650,13 +6665,13 @@
         <v>375</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H17" s="12">
         <v>44397</v>
@@ -6668,7 +6683,7 @@
         <v>44404</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -6676,22 +6691,22 @@
         <v>378</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H18" s="9">
         <v>44398</v>
@@ -6699,8 +6714,40 @@
       <c r="I18" s="9">
         <v>44398</v>
       </c>
+      <c r="J18" s="9">
+        <v>44399</v>
+      </c>
       <c r="L18" s="8" t="s">
-        <v>389</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="H19" s="12">
+        <v>44384</v>
+      </c>
+      <c r="I19" s="12">
+        <v>44399</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/2021项目对接/2021项目需求进度表.xlsx
+++ b/2021项目对接/2021项目需求进度表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929783F6-6EDB-45F6-822D-B88F3BA1169D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2429491E-F8B1-486B-83B2-5B5A1024093F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23385" yWindow="3600" windowWidth="17985" windowHeight="10290" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="451">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1810,7 +1810,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>产品上线中</t>
+    <t>HLS2091004B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禾一海诚健康卡项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京益家禾一科技有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改API呼叫电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> HBS建单功能改造</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准健康API测试问题修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加前置调查功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1853,7 +1877,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1863,6 +1887,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1894,7 +1924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1932,11 +1962,31 @@
     <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6124,10 +6174,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6368,6 +6418,9 @@
       <c r="I7" s="12">
         <v>44399</v>
       </c>
+      <c r="J7" s="12">
+        <v>44414</v>
+      </c>
       <c r="L7" s="11" t="s">
         <v>388</v>
       </c>
@@ -6660,29 +6713,29 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11">
+    <row r="17" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="14">
         <v>375</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="15">
         <v>44397</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="15">
         <v>44399</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="15">
         <v>44404</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="14" t="s">
         <v>388</v>
       </c>
     </row>
@@ -6722,6 +6775,9 @@
       </c>
     </row>
     <row r="19" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11">
+        <v>391</v>
+      </c>
       <c r="B19" s="11" t="s">
         <v>441</v>
       </c>
@@ -6746,12 +6802,137 @@
       <c r="I19" s="12">
         <v>44399</v>
       </c>
+      <c r="J19" s="12">
+        <v>44410</v>
+      </c>
       <c r="L19" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="14">
+        <v>389</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>444</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="H20" s="15">
+        <v>44404</v>
+      </c>
+      <c r="I20" s="15">
+        <v>44404</v>
+      </c>
+      <c r="J20" s="15">
+        <v>44404</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11">
+        <v>390</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="H21" s="12">
+        <v>44403</v>
+      </c>
+      <c r="I21" s="12">
+        <v>44404</v>
+      </c>
+      <c r="J21" s="12">
+        <v>44412</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11">
+        <v>393</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="H22" s="12">
+        <v>44384</v>
+      </c>
+      <c r="I22" s="12">
+        <v>44405</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>395</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="H23" s="12">
+        <v>44406</v>
+      </c>
+      <c r="I23" s="12">
+        <v>44406</v>
+      </c>
+      <c r="J23" s="12">
+        <v>44414</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/2021项目对接/2021项目需求进度表.xlsx
+++ b/2021项目对接/2021项目需求进度表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2429491E-F8B1-486B-83B2-5B5A1024093F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C952E8E1-3C8F-4B7A-9378-E6FFD3E0D0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="453">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1835,6 +1835,14 @@
   </si>
   <si>
     <t>增加前置调查功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王雪莉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂号网备案记录明细提取</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1924,7 +1932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1969,6 +1977,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6174,10 +6188,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6652,65 +6666,65 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11">
+    <row r="15" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="16">
         <v>354</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="17">
         <v>44392</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="17">
         <v>44392</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="17">
         <v>44400</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11">
+      <c r="L15" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="16">
         <v>367</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="17">
         <v>44396</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="17">
         <v>44396</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="17">
         <v>44400</v>
       </c>
-      <c r="L16" s="11" t="s">
-        <v>388</v>
+      <c r="L16" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.15">
@@ -6806,7 +6820,7 @@
         <v>44410</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>388</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.15">
@@ -6844,30 +6858,30 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11">
+    <row r="21" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="16">
         <v>390</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="17">
         <v>44403</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="17">
         <v>44404</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="17">
         <v>44412</v>
       </c>
-      <c r="L21" s="11" t="s">
-        <v>388</v>
+      <c r="L21" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -6926,6 +6940,32 @@
       </c>
       <c r="L23" s="11" t="s">
         <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <v>403</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="H24" s="9">
+        <v>44410</v>
+      </c>
+      <c r="I24" s="9">
+        <v>44410</v>
+      </c>
+      <c r="J24" s="9">
+        <v>44410</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/2021项目对接/2021项目需求进度表.xlsx
+++ b/2021项目对接/2021项目需求进度表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C952E8E1-3C8F-4B7A-9378-E6FFD3E0D0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCCD6AF-18E7-460F-90D1-BD79AC36F373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,10 @@
     <sheet name="5月" sheetId="5" r:id="rId5"/>
     <sheet name="6月" sheetId="7" r:id="rId6"/>
     <sheet name="7月" sheetId="8" r:id="rId7"/>
+    <sheet name="8月" sheetId="9" r:id="rId8"/>
+    <sheet name="9月" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="6"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="535">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1843,6 +1845,329 @@
   </si>
   <si>
     <t>挂号网备案记录明细提取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国寿总部个险开门红重疾服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS18B07B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡激活+服务页面对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级API服务补充</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2171006H031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安一账通服务采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳壹账通智能科技有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱威华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回执接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2111002B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海仕皋健康管理咨询有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仕皋医疗项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵彤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化备案接口对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBS资源协调员端优化需求V2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利宝保险有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2171012B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利保健康管理增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 国寿延期卡激活二维码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗助手增加服务入口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单服务接口开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务领取+激活流程开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2181001B016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏国寿电话医生服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人寿保险股份有限公司江苏分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准化</t>
+  </si>
+  <si>
+    <t>标准服务记录回传接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准健康</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试问题修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊瑚API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBS电话工作台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分服务关闭切换账户功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心麦江苏大数据健康项目</t>
+  </si>
+  <si>
+    <t>HLS2171003Q017</t>
+  </si>
+  <si>
+    <t>心麦（江苏）大数据科技有限公司</t>
+  </si>
+  <si>
+    <t>韩磊</t>
+  </si>
+  <si>
+    <t>新增服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2091011H017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛮牛健康管理服务有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛮牛健康管理服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息同步接口更新、HBS改造</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2171006B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人寿财产保险股份有限公司江西省分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西国寿财险公司重疾绿通服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周爱梅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务流程改造</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2141018B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中煤财产保险股份有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中煤医疗项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单独服务接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加服务页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2181004Q017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆和健康管理增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海新太永康健康科技有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度健康</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张楠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案、服务、回传对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加反洗钱材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能医生API注册流程调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2161004B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华人寿健康管理增值服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制备案接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBS宠物寄养流程开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垫付工单调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约接口+回传接口开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2191001B017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平乐享老年医诊卡项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务协议确认中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件落地接口调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS2181002Q031</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伙计企业管理（北京）有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 伙计企业医疗急救项目</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1932,7 +2257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1985,11 +2310,47 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2336,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3280,10 +3641,10 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="18" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="18" topLeftCell="J19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3573,8 +3934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3924,8 +4285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4063,7 +4424,7 @@
         <v>205</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L10" si="0">M3+N3+O3+P3</f>
+        <f t="shared" ref="L3:L11" si="0">M3+N3+O3+P3</f>
         <v>1.5</v>
       </c>
       <c r="M3" s="8">
@@ -4229,7 +4590,10 @@
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M7" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -4262,7 +4626,10 @@
       </c>
       <c r="L8" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
@@ -4292,7 +4659,10 @@
       </c>
       <c r="L9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
@@ -4313,7 +4683,10 @@
       </c>
       <c r="L10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="M10" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
@@ -4333,10 +4706,18 @@
       <c r="K11" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="L11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4345,7 +4726,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4804,6 +5185,13 @@
       <c r="L12" s="8" t="s">
         <v>250</v>
       </c>
+      <c r="M12" s="8">
+        <f t="shared" ref="M12:M24" si="3">N12+O12+P12+Q12</f>
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B13" s="8" t="s">
@@ -4836,6 +5224,13 @@
       <c r="L13" s="8" t="s">
         <v>250</v>
       </c>
+      <c r="M13" s="8">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N13" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B14" s="8" t="s">
@@ -4868,6 +5263,13 @@
       <c r="L14" s="8" t="s">
         <v>250</v>
       </c>
+      <c r="M14" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
@@ -4900,6 +5302,13 @@
       <c r="L15" s="8" t="s">
         <v>250</v>
       </c>
+      <c r="M15" s="8">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
@@ -4923,8 +5332,15 @@
       <c r="L16" s="8" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M16" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>45</v>
       </c>
@@ -4955,8 +5371,15 @@
       <c r="L17" s="8" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M17" s="8">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B18" s="8" t="s">
         <v>261</v>
       </c>
@@ -4987,8 +5410,15 @@
       <c r="L18" s="8" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M18" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B19" s="8" t="s">
         <v>270</v>
       </c>
@@ -5019,8 +5449,15 @@
       <c r="L19" s="8" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M19" s="8">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20" s="8" t="s">
         <v>276</v>
       </c>
@@ -5051,8 +5488,15 @@
       <c r="L20" s="8" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M20" s="8">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B21" s="8" t="s">
         <v>312</v>
       </c>
@@ -5083,8 +5527,15 @@
       <c r="L21" s="8" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M21" s="8">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
         <v>279</v>
       </c>
@@ -5109,8 +5560,15 @@
       <c r="L22" s="8" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M22" s="8">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B23" s="8" t="s">
         <v>280</v>
       </c>
@@ -5135,8 +5593,15 @@
       <c r="L23" s="8" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="M23" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B24" s="8" t="s">
         <v>320</v>
       </c>
@@ -5166,6 +5631,13 @@
       </c>
       <c r="L24" s="8" t="s">
         <v>250</v>
+      </c>
+      <c r="M24" s="8">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -5179,8 +5651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28:J29"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5290,6 +5762,13 @@
       <c r="L2" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="M2" s="8">
+        <f t="shared" ref="M2:M29" si="0">N2+O2+P2+Q2</f>
+        <v>0.5</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
@@ -5325,6 +5804,13 @@
       <c r="L3" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="M3" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
@@ -5360,6 +5846,13 @@
       <c r="L4" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="M4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
@@ -5386,6 +5879,13 @@
       <c r="L5" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="M5" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
@@ -5421,6 +5921,13 @@
       <c r="L6" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="M6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
@@ -5456,6 +5963,13 @@
       <c r="L7" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="M7" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
@@ -5491,6 +6005,13 @@
       <c r="L8" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="M8" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B9" s="8" t="s">
@@ -5511,6 +6032,13 @@
       <c r="L9" s="8" t="s">
         <v>332</v>
       </c>
+      <c r="M9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
@@ -5546,6 +6074,13 @@
       <c r="L10" s="8" t="s">
         <v>264</v>
       </c>
+      <c r="M10" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N10" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
@@ -5581,6 +6116,13 @@
       <c r="L11" s="8" t="s">
         <v>335</v>
       </c>
+      <c r="M11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
@@ -5616,6 +6158,13 @@
       <c r="L12" s="8" t="s">
         <v>331</v>
       </c>
+      <c r="M12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
@@ -5651,6 +6200,13 @@
       <c r="L13" s="8" t="s">
         <v>364</v>
       </c>
+      <c r="M13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
@@ -5686,6 +6242,13 @@
       <c r="L14" s="8" t="s">
         <v>337</v>
       </c>
+      <c r="M14" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
@@ -5721,6 +6284,13 @@
       <c r="L15" s="8" t="s">
         <v>339</v>
       </c>
+      <c r="M15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
@@ -5756,8 +6326,15 @@
       <c r="L16" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M16" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>299</v>
       </c>
@@ -5782,8 +6359,15 @@
       <c r="L17" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>300</v>
       </c>
@@ -5817,8 +6401,15 @@
       <c r="L18" s="8" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M18" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>301</v>
       </c>
@@ -5852,8 +6443,15 @@
       <c r="L19" s="8" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>304</v>
       </c>
@@ -5878,8 +6476,15 @@
       <c r="L20" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>305</v>
       </c>
@@ -5913,8 +6518,15 @@
       <c r="L21" s="8" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>306</v>
       </c>
@@ -5948,8 +6560,15 @@
       <c r="L22" s="8" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>309</v>
       </c>
@@ -5983,8 +6602,15 @@
       <c r="L23" s="8" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M23" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>314</v>
       </c>
@@ -6018,8 +6644,15 @@
       <c r="L24" s="8" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>317</v>
       </c>
@@ -6053,8 +6686,15 @@
       <c r="L25" s="8" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>318</v>
       </c>
@@ -6085,8 +6725,15 @@
       <c r="L26" s="8" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>319</v>
       </c>
@@ -6117,8 +6764,15 @@
       <c r="L27" s="8" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M27" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>327</v>
       </c>
@@ -6143,8 +6797,15 @@
       <c r="L28" s="8" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M28" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>328</v>
       </c>
@@ -6177,6 +6838,13 @@
       </c>
       <c r="L29" s="8" t="s">
         <v>417</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N29" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6188,10 +6856,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6206,10 +6874,12 @@
     <col min="8" max="8" width="14.125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="8"/>
     <col min="10" max="10" width="23" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="8"/>
+    <col min="11" max="12" width="9" style="8"/>
+    <col min="13" max="13" width="14.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>324</v>
       </c>
@@ -6246,8 +6916,14 @@
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>317</v>
       </c>
@@ -6281,8 +6957,15 @@
       <c r="L2" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M2" s="8">
+        <f t="shared" ref="M2:M23" si="0">N2+O2+P2+Q2</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>318</v>
       </c>
@@ -6316,8 +6999,15 @@
       <c r="L3" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M3" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>319</v>
       </c>
@@ -6351,8 +7041,15 @@
       <c r="L4" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M4" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>316</v>
       </c>
@@ -6377,8 +7074,15 @@
       <c r="L5" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>315</v>
       </c>
@@ -6403,43 +7107,57 @@
       <c r="L6" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+      <c r="M6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="14">
         <v>386</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="15">
         <v>44376</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="15">
         <v>44399</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="15">
         <v>44414</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>327</v>
       </c>
@@ -6473,8 +7191,15 @@
       <c r="L8" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M8" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>328</v>
       </c>
@@ -6508,8 +7233,15 @@
       <c r="L9" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M9" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>330</v>
       </c>
@@ -6543,34 +7275,48 @@
       <c r="L10" s="8" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
+      <c r="M10" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14">
         <v>344</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="15">
         <v>44386</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="15">
         <v>44390</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="15">
         <v>44410</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>349</v>
       </c>
@@ -6604,34 +7350,48 @@
       <c r="L12" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
+      <c r="M12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="14">
         <v>350</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="15">
         <v>44390</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="15">
         <v>44390</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="15">
         <v>44410</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>352</v>
       </c>
@@ -6665,8 +7425,15 @@
       <c r="L14" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M14" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16">
         <v>354</v>
       </c>
@@ -6691,8 +7458,15 @@
       <c r="L15" s="16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M15" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N15" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16">
         <v>367</v>
       </c>
@@ -6726,8 +7500,15 @@
       <c r="L16" s="16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M16" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>375</v>
       </c>
@@ -6752,8 +7533,15 @@
       <c r="L17" s="14" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M17" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N17" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>378</v>
       </c>
@@ -6787,8 +7575,15 @@
       <c r="L18" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>391</v>
       </c>
@@ -6822,8 +7617,15 @@
       <c r="L19" s="11" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M19" s="8">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="N19" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
         <v>389</v>
       </c>
@@ -6857,8 +7659,15 @@
       <c r="L20" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16">
         <v>390</v>
       </c>
@@ -6883,8 +7692,15 @@
       <c r="L21" s="16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M21" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N21" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>393</v>
       </c>
@@ -6906,8 +7722,15 @@
       <c r="L22" s="11" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>395</v>
       </c>
@@ -6939,38 +7762,1541 @@
         <v>44414</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="8">
-        <v>403</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="H24" s="9">
-        <v>44410</v>
-      </c>
-      <c r="I24" s="9">
-        <v>44410</v>
-      </c>
-      <c r="J24" s="9">
-        <v>44410</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>34</v>
+        <v>264</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A1:A23 A25:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C367877-BB76-4C5F-ACAF-D9464F1D86F0}">
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="27.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="8"/>
+    <col min="7" max="7" width="23.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="8"/>
+    <col min="12" max="12" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
+        <v>403</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="H2" s="9">
+        <v>44410</v>
+      </c>
+      <c r="I2" s="9">
+        <v>44410</v>
+      </c>
+      <c r="J2" s="9">
+        <v>44410</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="8">
+        <f t="shared" ref="M2:M26" si="0">N2+O2+P2+Q2</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>405</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="H3" s="9">
+        <v>44410</v>
+      </c>
+      <c r="I3" s="9">
+        <v>44412</v>
+      </c>
+      <c r="J3" s="9">
+        <v>44419</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>406</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="H4" s="9">
+        <v>44412</v>
+      </c>
+      <c r="I4" s="9">
+        <v>44412</v>
+      </c>
+      <c r="J4" s="9">
+        <v>44414</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11">
+        <v>407</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="12">
+        <v>44407</v>
+      </c>
+      <c r="I5" s="12">
+        <v>44410</v>
+      </c>
+      <c r="J5" s="12">
+        <v>44421</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>408</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="H6" s="9">
+        <v>44411</v>
+      </c>
+      <c r="I6" s="9">
+        <v>44411</v>
+      </c>
+      <c r="J6" s="9">
+        <v>44417</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>412</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" s="9">
+        <v>44412</v>
+      </c>
+      <c r="I7" s="9">
+        <v>44412</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" s="9">
+        <v>44414</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>425</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="H9" s="9">
+        <v>44417</v>
+      </c>
+      <c r="I9" s="9">
+        <v>44417</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>424</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="H10" s="9">
+        <v>44418</v>
+      </c>
+      <c r="I10" s="9">
+        <v>44418</v>
+      </c>
+      <c r="J10" s="9">
+        <v>44421</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>427</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="H11" s="9">
+        <v>44419</v>
+      </c>
+      <c r="I11" s="9">
+        <v>44420</v>
+      </c>
+      <c r="J11" s="9">
+        <v>44421</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <v>428</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="H12" s="9">
+        <v>44419</v>
+      </c>
+      <c r="I12" s="9">
+        <v>44419</v>
+      </c>
+      <c r="J12" s="9">
+        <v>44420</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>434</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="H13" s="9">
+        <v>44420</v>
+      </c>
+      <c r="I13" s="9">
+        <v>44420</v>
+      </c>
+      <c r="J13" s="9">
+        <v>44424</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11">
+        <v>443</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="H14" s="12">
+        <v>44424</v>
+      </c>
+      <c r="I14" s="12">
+        <v>44425</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11">
+        <v>452</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="H15" s="12">
+        <v>44425</v>
+      </c>
+      <c r="I15" s="12">
+        <v>44425</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N15" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
+        <v>455</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="I16" s="9">
+        <v>44427</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N16" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11">
+        <v>459</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="H17" s="12">
+        <v>44428</v>
+      </c>
+      <c r="I17" s="12">
+        <v>44428</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="14">
+        <v>461</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="I18" s="15">
+        <v>44428</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="14">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="14">
+        <v>462</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="15">
+        <v>44431</v>
+      </c>
+      <c r="I19" s="15">
+        <v>44431</v>
+      </c>
+      <c r="J19" s="15">
+        <v>44449</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="14">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
+        <v>464</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="H20" s="9">
+        <v>44431</v>
+      </c>
+      <c r="I20" s="9">
+        <v>44431</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11">
+        <v>467</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="12">
+        <v>44432</v>
+      </c>
+      <c r="I21" s="12">
+        <v>44432</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="M21" s="11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="14">
+        <v>471</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="15">
+        <v>44433</v>
+      </c>
+      <c r="I22" s="15">
+        <v>44433</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>474</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="H23" s="12">
+        <v>44434</v>
+      </c>
+      <c r="I23" s="12">
+        <v>44434</v>
+      </c>
+      <c r="J23" s="12">
+        <v>44449</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="M23" s="11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="14">
+        <v>475</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="H24" s="15">
+        <v>44434</v>
+      </c>
+      <c r="I24" s="15">
+        <v>44434</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="14">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N24" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="11">
+        <v>476</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="H25" s="12">
+        <v>44435</v>
+      </c>
+      <c r="I25" s="12">
+        <v>44435</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="M25" s="11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="11">
+        <v>477</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="H26" s="12">
+        <v>44435</v>
+      </c>
+      <c r="I26" s="12">
+        <v>44435</v>
+      </c>
+      <c r="J26" s="12">
+        <v>44446</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="M26" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F571059-06AC-47C0-B2E3-993E3158A873}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11">
+        <v>484</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="H2" s="12">
+        <v>44329</v>
+      </c>
+      <c r="I2" s="12">
+        <v>44441</v>
+      </c>
+      <c r="J2" s="12">
+        <v>44448</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="M2" s="8">
+        <f>N2+O2+P2+Q2</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>274</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="H3" s="19">
+        <v>44358</v>
+      </c>
+      <c r="I3" s="19">
+        <v>44439</v>
+      </c>
+      <c r="J3" s="19">
+        <v>44450</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>483</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="19">
+        <v>44433</v>
+      </c>
+      <c r="I4" s="19">
+        <v>44441</v>
+      </c>
+      <c r="J4" s="19">
+        <v>44448</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="H5" s="19">
+        <v>44378</v>
+      </c>
+      <c r="I5" s="19">
+        <v>44449</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>484</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="19">
+        <v>44441</v>
+      </c>
+      <c r="I6" s="19">
+        <v>44441</v>
+      </c>
+      <c r="J6" s="19">
+        <v>44449</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>489</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="H7" s="19">
+        <v>44442</v>
+      </c>
+      <c r="I7" s="19">
+        <v>44442</v>
+      </c>
+      <c r="J7" s="19">
+        <v>44449</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>495</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H8" s="19">
+        <v>44447</v>
+      </c>
+      <c r="I8" s="19">
+        <v>44447</v>
+      </c>
+      <c r="J8" s="19">
+        <v>44447</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>499</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="H9" s="19">
+        <v>44435</v>
+      </c>
+      <c r="I9" s="19">
+        <v>44448</v>
+      </c>
+      <c r="J9" s="19">
+        <v>44453</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>500</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="H10" s="19">
+        <v>44448</v>
+      </c>
+      <c r="I10" s="19">
+        <v>44448</v>
+      </c>
+      <c r="J10" s="19">
+        <v>44462</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>504</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="H11" s="19">
+        <v>44449</v>
+      </c>
+      <c r="I11" s="19">
+        <v>44452</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H12" s="19">
+        <v>44449</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B13" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="H13" s="19">
+        <v>44440</v>
+      </c>
+      <c r="I13" s="19">
+        <v>44449</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="H14" s="19">
+        <v>44449</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
